--- a/data/poverty_county_level__clean_v2.0.xlsx
+++ b/data/poverty_county_level__clean_v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ts3593_cumc_columbia_edu/Documents/DS/p8105_final_voting_crisis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3D5CDC38-00FE-4E3B-94D2-DFA9FD8A60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96AB7CCE-8199-426A-9166-7F9E32B4BBA9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{3D5CDC38-00FE-4E3B-94D2-DFA9FD8A60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5F6B4DA-B350-4A6C-9C6E-53B0411FC9BD}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="495" windowWidth="32790" windowHeight="19755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,202 +33,203 @@
     <t>total</t>
   </si>
   <si>
+    <t>total_income_in_the_past_12_months_at_or_above_the_poverty_level</t>
+  </si>
+  <si>
+    <t>above_poverty_percentage</t>
+  </si>
+  <si>
+    <t>below_poverty_percentage</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>Allegany</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Broome</t>
+  </si>
+  <si>
+    <t>Cattaraugus</t>
+  </si>
+  <si>
+    <t>Cayuga</t>
+  </si>
+  <si>
+    <t>Chautauqua</t>
+  </si>
+  <si>
+    <t>Chemung</t>
+  </si>
+  <si>
+    <t>Chenango</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Cortland</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Dutchess</t>
+  </si>
+  <si>
+    <t>Erie</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>Genesee</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Herkimer</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Niagara</t>
+  </si>
+  <si>
+    <t>Oneida</t>
+  </si>
+  <si>
+    <t>Onondaga</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Orleans</t>
+  </si>
+  <si>
+    <t>Oswego</t>
+  </si>
+  <si>
+    <t>Otsego</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Rensselaer</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Rockland</t>
+  </si>
+  <si>
+    <t>St. Lawrence</t>
+  </si>
+  <si>
+    <t>Saratoga</t>
+  </si>
+  <si>
+    <t>Schenectady</t>
+  </si>
+  <si>
+    <t>Schoharie</t>
+  </si>
+  <si>
+    <t>Schuyler</t>
+  </si>
+  <si>
+    <t>Seneca</t>
+  </si>
+  <si>
+    <t>Steuben</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Tioga</t>
+  </si>
+  <si>
+    <t>Tompkins</t>
+  </si>
+  <si>
+    <t>Ulster</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Westchester</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
     <t>total_income_in_the_past_12_months_below_poverty_level</t>
-  </si>
-  <si>
-    <t>total_income_in_the_past_12_months_at_or_above_the_poverty_level</t>
-  </si>
-  <si>
-    <t>above_poverty_percentage</t>
-  </si>
-  <si>
-    <t>below_poverty_percentage</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Albany</t>
-  </si>
-  <si>
-    <t>Allegany</t>
-  </si>
-  <si>
-    <t>Bronx</t>
-  </si>
-  <si>
-    <t>Broome</t>
-  </si>
-  <si>
-    <t>Cattaraugus</t>
-  </si>
-  <si>
-    <t>Cayuga</t>
-  </si>
-  <si>
-    <t>Chautauqua</t>
-  </si>
-  <si>
-    <t>Chemung</t>
-  </si>
-  <si>
-    <t>Chenango</t>
-  </si>
-  <si>
-    <t>Clinton</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>Cortland</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Dutchess</t>
-  </si>
-  <si>
-    <t>Erie</t>
-  </si>
-  <si>
-    <t>Essex</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Fulton</t>
-  </si>
-  <si>
-    <t>Genesee</t>
-  </si>
-  <si>
-    <t>Greene</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Herkimer</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Kings</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Montgomery</t>
-  </si>
-  <si>
-    <t>Nassau</t>
-  </si>
-  <si>
-    <t>Niagara</t>
-  </si>
-  <si>
-    <t>Oneida</t>
-  </si>
-  <si>
-    <t>Onondaga</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Orleans</t>
-  </si>
-  <si>
-    <t>Oswego</t>
-  </si>
-  <si>
-    <t>Otsego</t>
-  </si>
-  <si>
-    <t>Putnam</t>
-  </si>
-  <si>
-    <t>Queens</t>
-  </si>
-  <si>
-    <t>Rensselaer</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Rockland</t>
-  </si>
-  <si>
-    <t>St. Lawrence</t>
-  </si>
-  <si>
-    <t>Saratoga</t>
-  </si>
-  <si>
-    <t>Schenectady</t>
-  </si>
-  <si>
-    <t>Schoharie</t>
-  </si>
-  <si>
-    <t>Schuyler</t>
-  </si>
-  <si>
-    <t>Seneca</t>
-  </si>
-  <si>
-    <t>Steuben</t>
-  </si>
-  <si>
-    <t>Suffolk</t>
-  </si>
-  <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
-    <t>Tioga</t>
-  </si>
-  <si>
-    <t>Tompkins</t>
-  </si>
-  <si>
-    <t>Ulster</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Wayne</t>
-  </si>
-  <si>
-    <t>Westchester</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Yates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,10 +557,16 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="57.25" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="49.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -569,21 +576,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>13369457</v>
@@ -603,7 +610,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>221641</v>
@@ -623,7 +630,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>32085</v>
@@ -643,7 +650,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>832207</v>
@@ -663,7 +670,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>140517</v>
@@ -683,7 +690,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>57340</v>
@@ -703,7 +710,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>57255</v>
@@ -723,7 +730,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>95780</v>
@@ -743,7 +750,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>60943</v>
@@ -763,7 +770,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>36758</v>
@@ -783,7 +790,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>57287</v>
@@ -803,7 +810,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>46706</v>
@@ -823,7 +830,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>34945</v>
@@ -843,7 +850,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>34548</v>
@@ -863,7 +870,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>210884</v>
@@ -883,7 +890,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>686640</v>
@@ -903,7 +910,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>28310</v>
@@ -923,7 +930,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>35305</v>
@@ -943,7 +950,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>41819</v>
@@ -963,7 +970,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>44685</v>
@@ -983,7 +990,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>36127</v>
@@ -1003,7 +1010,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>3821</v>
@@ -1023,7 +1030,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>47788</v>
@@ -1043,7 +1050,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>77088</v>
@@ -1063,7 +1070,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1645596</v>
@@ -1083,7 +1090,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>20008</v>
@@ -1103,7 +1110,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>45697</v>
@@ -1123,7 +1130,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>51909</v>
@@ -1143,7 +1150,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>545762</v>
@@ -1163,7 +1170,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>36696</v>
@@ -1183,7 +1190,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>955993</v>
@@ -1203,7 +1210,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>1148713</v>
@@ -1223,7 +1230,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>162245</v>
@@ -1243,7 +1250,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>163962</v>
@@ -1263,7 +1270,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>334293</v>
@@ -1283,7 +1290,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>83324</v>
@@ -1303,7 +1310,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>259780</v>
@@ -1323,7 +1330,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>29694</v>
@@ -1343,7 +1350,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>87744</v>
@@ -1363,7 +1370,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>44522</v>
@@ -1383,7 +1390,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>73068</v>
@@ -1403,7 +1410,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>1383989</v>
@@ -1423,7 +1430,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>119356</v>
@@ -1443,7 +1450,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>333292</v>
@@ -1463,7 +1470,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>204876</v>
@@ -1483,7 +1490,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>74676</v>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>176009</v>
@@ -1523,7 +1530,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>113176</v>
@@ -1543,7 +1550,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>24248</v>
@@ -1563,7 +1570,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>14222</v>
@@ -1583,7 +1590,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>24449</v>
@@ -1603,7 +1610,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>72583</v>
@@ -1623,7 +1630,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>1066226</v>
@@ -1643,7 +1650,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>54281</v>
@@ -1663,7 +1670,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>37704</v>
@@ -1683,7 +1690,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>68666</v>
@@ -1703,7 +1710,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>135157</v>
@@ -1723,7 +1730,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>51084</v>
@@ -1743,7 +1750,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>46367</v>
@@ -1763,7 +1770,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>69474</v>
@@ -1783,7 +1790,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>642288</v>
@@ -1803,7 +1810,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>29697</v>
@@ -1823,7 +1830,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>18152</v>
